--- a/BalanceSheet/F_bal.xlsx
+++ b/BalanceSheet/F_bal.xlsx
@@ -5170,7 +5170,7 @@
         <v>122323000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>122070000000.0</v>
+        <v>120656000000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>116780000000.0</v>
@@ -5297,7 +5297,7 @@
         <v>168693000000.0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>156721000000.0</v>
+        <v>155307000000.0</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>154111000000.0</v>
